--- a/RESULTADOS_PAPER/SGAI/datossemanales/Completos.xlsx
+++ b/RESULTADOS_PAPER/SGAI/datossemanales/Completos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chris\UPV\PHD\LOGIFRUIT\RESULTADOS\paper\datossemanales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chris\UPV\PHD\LOGIFRUIT\RESULTADOS_PAPER\SGAI\datossemanales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F164BB-D0C9-4AF1-B873-0D2E5CEAE18B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1559B0-9155-4949-87D4-5C769EEE893C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{380EEB66-0696-4D26-B1CB-DFE7E3FBFC51}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{380EEB66-0696-4D26-B1CB-DFE7E3FBFC51}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -158,10 +158,10 @@
           <c:spPr>
             <a:pattFill prst="dkUpDiag">
               <a:fgClr>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="tx1"/>
               </a:fgClr>
               <a:bgClr>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="bg1"/>
               </a:bgClr>
             </a:pattFill>
             <a:ln>
@@ -276,9 +276,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:pattFill prst="wdDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -611,10 +616,10 @@
           <c:spPr>
             <a:pattFill prst="dkUpDiag">
               <a:fgClr>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="tx1"/>
               </a:fgClr>
               <a:bgClr>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="bg1"/>
               </a:bgClr>
             </a:pattFill>
             <a:ln>
@@ -729,9 +734,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:pattFill prst="wdDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1064,10 +1074,10 @@
           <c:spPr>
             <a:pattFill prst="dkUpDiag">
               <a:fgClr>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="tx1"/>
               </a:fgClr>
               <a:bgClr>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="bg1"/>
               </a:bgClr>
             </a:pattFill>
             <a:ln>
@@ -1182,9 +1192,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:pattFill prst="wdDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3520,8 +3535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7164C856-04A8-4246-A465-B4D5984D1A61}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RESULTADOS_PAPER/SGAI/datossemanales/Completos.xlsx
+++ b/RESULTADOS_PAPER/SGAI/datossemanales/Completos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chris\UPV\PHD\LOGIFRUIT\RESULTADOS_PAPER\SGAI\datossemanales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1559B0-9155-4949-87D4-5C769EEE893C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09373EB-9315-447C-B2C4-A1086C9B87DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{380EEB66-0696-4D26-B1CB-DFE7E3FBFC51}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{380EEB66-0696-4D26-B1CB-DFE7E3FBFC51}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="12">
   <si>
     <t>TOTAL NEGATIVOS</t>
   </si>
@@ -47,13 +47,28 @@
     <t>GRASP</t>
   </si>
   <si>
-    <t>Week 2</t>
+    <t>GREEDY</t>
   </si>
   <si>
-    <t>Week 1</t>
+    <t>Case 1</t>
   </si>
   <si>
-    <t>GREEDY</t>
+    <t>Case 2</t>
+  </si>
+  <si>
+    <t>CASE 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transport cost </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stock cost </t>
+  </si>
+  <si>
+    <t>Total cost</t>
+  </si>
+  <si>
+    <t>CASE 2</t>
   </si>
 </sst>
 </file>
@@ -69,9 +84,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -97,12 +110,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -171,60 +188,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
+            <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -232,10 +196,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Week 1</c:v>
+                  <c:v>Case 1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Week 2</c:v>
+                  <c:v>Case 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -291,60 +255,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
+            <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -352,10 +263,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Week 1</c:v>
+                  <c:v>Case 1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Week 2</c:v>
+                  <c:v>Case 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -467,6 +378,36 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -686,29 +627,29 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$B$4:$C$4</c:f>
+              <c:f>Hoja1!$F$4:$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Week 1</c:v>
+                  <c:v>Case 1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Week 2</c:v>
+                  <c:v>Case 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$5:$C$5</c:f>
+              <c:f>Hoja1!$F$5:$G$5</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>377.23686974789916</c:v>
+                  <c:v>13059.254545454545</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>650.6024159663865</c:v>
+                  <c:v>28808.069767441859</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -734,7 +675,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="wdDnDiag">
+            <a:pattFill prst="wdUpDiag">
               <a:fgClr>
                 <a:schemeClr val="tx1"/>
               </a:fgClr>
@@ -806,29 +747,29 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$B$4:$C$4</c:f>
+              <c:f>Hoja1!$F$4:$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Week 1</c:v>
+                  <c:v>Case 1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Week 2</c:v>
+                  <c:v>Case 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$6:$C$6</c:f>
+              <c:f>Hoja1!$F$6:$G$6</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>150.40073529411765</c:v>
+                  <c:v>8948.84375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>120.28571428571429</c:v>
+                  <c:v>13472</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -925,7 +866,37 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -960,6 +931,45 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1148,10 +1158,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Week 1</c:v>
+                  <c:v>Case 1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Week 2</c:v>
+                  <c:v>Case 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1268,10 +1278,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Week 1</c:v>
+                  <c:v>Case 1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Week 2</c:v>
+                  <c:v>Case 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1494,6 +1504,1028 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18307610474154873"/>
+          <c:y val="3.4559760393483144E-2"/>
+          <c:w val="0.794310096211436"/>
+          <c:h val="0.80879032701998232"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GREEDY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$F$4:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Case 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Case 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$F$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>13059.254545454545</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28808.069767441859</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6F91-4321-8F54-0B794B790A07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GRASP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$F$4:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Case 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Case 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$F$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8948.84375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13472</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6F91-4321-8F54-0B794B790A07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1999518703"/>
+        <c:axId val="956554831"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1999518703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="956554831"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="956554831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Units</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES" baseline="0"/>
+                  <a:t> of articles with negative stock</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.2892798613840486E-2"/>
+              <c:y val="0.16106619113955739"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1999518703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GREEDY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Hoja1!$B$20:$G$21</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Transport cost </c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Stock cost </c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Total cost</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Transport cost </c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Stock cost </c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Total cost</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>CASE 1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>CASE 2</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$22:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>186.96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.477812172088143</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>225.43781217208814</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>197.43</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.9347219307450159</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>204.36472193074502</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0EF6-40AE-B249-A4691BE67A2F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GRASP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Hoja1!$B$20:$G$21</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Transport cost </c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Stock cost </c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Total cost</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Transport cost </c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Stock cost </c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Total cost</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>CASE 1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>CASE 2</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$23:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>212.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6674606505771248</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>217.5874606505771</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>199.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3712749213011541</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>201.57127492130115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0EF6-40AE-B249-A4691BE67A2F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2106810975"/>
+        <c:axId val="1824253839"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2106810975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1824253839"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1824253839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Euros for order</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2106810975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1614,6 +2646,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3123,20 +4235,1026 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>175531</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>651781</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>120421</xdr:rowOff>
+      <xdr:rowOff>52385</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>508906</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>223156</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>182334</xdr:rowOff>
+      <xdr:rowOff>114298</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3169,10 +5287,10 @@
       <xdr:rowOff>151721</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>217714</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>40823</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>312964</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3228,6 +5346,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>204106</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>84364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Gráfico 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B140C35-BB3D-49AB-9F7C-72E8AD999615}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>510886</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>346364</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>86590</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Gráfico 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C19A9D7B-8708-4C21-BB19-5CE9B969665A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3533,28 +5723,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7164C856-04A8-4246-A465-B4D5984D1A61}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T30" sqref="T30"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AG29" sqref="AG29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="B2">
         <v>55</v>
@@ -3566,7 +5757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3580,59 +5771,85 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="B5" s="4">
-        <f>718259/1904</f>
-        <v>377.23686974789916</v>
+        <f>718259</f>
+        <v>718259</v>
       </c>
       <c r="C5" s="4">
-        <f>1238747/1904</f>
-        <v>650.6024159663865</v>
+        <f>1238747</f>
+        <v>1238747</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5">
+        <f>B5/B2</f>
+        <v>13059.254545454545</v>
+      </c>
+      <c r="G5" s="5">
+        <f>C5/C2</f>
+        <v>28808.069767441859</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="4">
-        <f>286363/1904</f>
-        <v>150.40073529411765</v>
+        <f>286363</f>
+        <v>286363</v>
       </c>
       <c r="C6" s="4">
-        <f>229024/1904</f>
-        <v>120.28571428571429</v>
+        <f>229024</f>
+        <v>229024</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="E6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5">
+        <f>B6/B3</f>
+        <v>8948.84375</v>
+      </c>
+      <c r="G6" s="5">
+        <f>C6/C3</f>
+        <v>13472</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="B8">
         <v>18174</v>
@@ -3644,7 +5861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -3658,20 +5875,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>4</v>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
         <f>((B2-B3)*100)/B2</f>
         <v>41.81818181818182</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <f>((C2-C3)*100)/C2</f>
         <v>60.465116279069768</v>
       </c>
@@ -3679,20 +5896,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>4</v>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
         <f>((B5-B6)*100)/B5</f>
         <v>60.130955546676063</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <f>((C5-C6)*100)/C5</f>
         <v>81.511640391460077</v>
       </c>
@@ -3700,20 +5917,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>4</v>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
         <f>((B8-B9)*100)/B8</f>
         <v>86.442170133157262</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <f>((C8-C9)*100)/C8</f>
         <v>97.416835270314778</v>
       </c>
@@ -3721,7 +5938,98 @@
         <v>2</v>
       </c>
     </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>186.96</v>
+      </c>
+      <c r="C22" s="3">
+        <f>73338.71/1906</f>
+        <v>38.477812172088143</v>
+      </c>
+      <c r="D22" s="3">
+        <f>B22+C22</f>
+        <v>225.43781217208814</v>
+      </c>
+      <c r="E22">
+        <v>197.43</v>
+      </c>
+      <c r="F22" s="3">
+        <f>13217.58/1906</f>
+        <v>6.9347219307450159</v>
+      </c>
+      <c r="G22" s="3">
+        <f>E22+F22</f>
+        <v>204.36472193074502</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>212.92</v>
+      </c>
+      <c r="C23" s="3">
+        <f>8896.18/1906</f>
+        <v>4.6674606505771248</v>
+      </c>
+      <c r="D23" s="3">
+        <f>B23+C23</f>
+        <v>217.5874606505771</v>
+      </c>
+      <c r="E23">
+        <v>199.2</v>
+      </c>
+      <c r="F23" s="3">
+        <f>4519.65/1906</f>
+        <v>2.3712749213011541</v>
+      </c>
+      <c r="G23" s="3">
+        <f>E23+F23</f>
+        <v>201.57127492130115</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
